--- a/nodes_source_analyses/transport/transport_ship_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_ship_using_diesel_mix.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Source</t>
   </si>
@@ -266,7 +266,10 @@
     <t>Not used in ETM yet</t>
   </si>
   <si>
-    <t>dual fuel ship</t>
+    <t>hence dual fuel efficiency</t>
+  </si>
+  <si>
+    <t>dual fuel ship,</t>
   </si>
 </sst>
 </file>
@@ -279,19 +282,12 @@
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -760,456 +756,456 @@
   </borders>
   <cellStyleXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="177" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="177" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="248">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1552,7 +1548,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1596,7 +1592,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -2265,7 +2261,7 @@
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2391,7 +2387,7 @@
       <c r="D11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="115">
         <f>'Research data'!H7</f>
         <v>1.6638935108153079E-3</v>
       </c>
@@ -2733,7 +2729,7 @@
   </sheetPr>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2941,8 +2937,8 @@
   </sheetPr>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2952,7 +2948,7 @@
     <col min="3" max="3" width="17" style="61" customWidth="1"/>
     <col min="4" max="4" width="3.125" style="61" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="61" customWidth="1"/>
     <col min="7" max="16384" width="10.625" style="61"/>
   </cols>
   <sheetData>
@@ -3145,8 +3141,8 @@
       <c r="B14" s="65"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="115" t="s">
-        <v>67</v>
+      <c r="E14" s="125" t="s">
+        <v>68</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -3161,7 +3157,9 @@
       <c r="B15" s="65"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="E15" s="125" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>

--- a/nodes_source_analyses/transport/transport_ship_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_ship_using_diesel_mix.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -179,9 +187,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -271,6 +276,10 @@
   <si>
     <t>dual fuel ship,</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +291,7 @@
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,11 +458,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1118,7 +1122,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1149,7 +1153,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1178,34 +1182,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="248">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1467,77 +1471,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3759200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1631,7 +1565,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2074,50 +2008,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="19"/>
+    <col min="1" max="1" width="3.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2126,29 +2060,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="72" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="73"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="74"/>
       <c r="C10" s="75"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="74" t="s">
         <v>27</v>
@@ -2157,33 +2091,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="74"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="74"/>
       <c r="C13" s="77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="74"/>
       <c r="C14" s="75" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="74" t="s">
         <v>32</v>
@@ -2192,49 +2126,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="74"/>
       <c r="C17" s="79" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="74"/>
       <c r="C18" s="80" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="82"/>
       <c r="C20" s="83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="82"/>
       <c r="C21" s="84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="82"/>
       <c r="C22" s="85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="82"/>
       <c r="C23" s="86" t="s">
         <v>40</v>
@@ -2246,84 +2180,79 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="43.125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
     <col min="10" max="10" width="5" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="32"/>
+    <col min="11" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="121"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="123"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="34"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2334,7 +2263,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="2:11" s="22" customFormat="1">
+    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="93"/>
       <c r="C8" s="15" t="s">
         <v>18</v>
@@ -2355,7 +2284,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="2:11" s="22" customFormat="1">
+    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="30"/>
@@ -2366,7 +2295,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>45</v>
@@ -2379,13 +2308,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="115">
         <f>'Research data'!H7</f>
@@ -2393,15 +2322,15 @@
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="101" t="s">
         <v>20</v>
@@ -2414,14 +2343,14 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="112"/>
       <c r="J12" s="92"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
       <c r="C13" s="33"/>
       <c r="D13" s="95"/>
@@ -2433,7 +2362,7 @@
       <c r="J13" s="92"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="13" t="s">
         <v>5</v>
@@ -2446,7 +2375,7 @@
       <c r="I14" s="60"/>
       <c r="J14" s="92"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="36" t="s">
         <v>21</v>
@@ -2464,11 +2393,11 @@
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="92"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -2479,50 +2408,13 @@
       <c r="I16" s="40"/>
       <c r="J16" s="41"/>
     </row>
-    <row r="21" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>431800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3759200</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2537,22 +2429,22 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="10.625" style="42"/>
+    <col min="1" max="1" width="3.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="16" thickBot="1"/>
-    <row r="3" spans="2:11">
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -2562,7 +2454,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="2:11" s="22" customFormat="1">
+    <row r="4" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="87" t="s">
         <v>41</v>
@@ -2579,10 +2471,10 @@
       <c r="I4" s="87"/>
       <c r="J4" s="87"/>
       <c r="K4" s="87" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -2593,7 +2485,7 @@
       <c r="I5" s="49"/>
       <c r="K5" s="58"/>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -2607,15 +2499,15 @@
       <c r="J6" s="46"/>
       <c r="K6" s="57"/>
     </row>
-    <row r="7" spans="2:11" ht="16" thickBot="1">
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="88"/>
       <c r="H7" s="109">
@@ -2625,10 +2517,10 @@
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="110" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="52" t="s">
         <v>3</v>
@@ -2646,10 +2538,10 @@
       <c r="I8" s="49"/>
       <c r="J8" s="46"/>
       <c r="K8" s="110" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="45"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -2661,7 +2553,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="48"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="12" t="s">
         <v>42</v>
@@ -2675,7 +2567,7 @@
       <c r="J10" s="46"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="91" t="s">
         <v>44</v>
@@ -2690,10 +2582,10 @@
       <c r="I11" s="11"/>
       <c r="J11" s="49"/>
       <c r="K11" s="114" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45"/>
       <c r="C12" s="91" t="s">
         <v>43</v>
@@ -2708,17 +2600,12 @@
       <c r="I12" s="56"/>
       <c r="J12" s="49"/>
       <c r="K12" s="114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2733,22 +2620,22 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="61" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="61" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="66" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="61"/>
+    <col min="1" max="1" width="3.5703125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="61" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="61" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="66" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="66" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="61" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -2759,7 +2646,7 @@
       <c r="I2" s="67"/>
       <c r="J2" s="63"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="65"/>
       <c r="C3" s="13" t="s">
         <v>36</v>
@@ -2772,7 +2659,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="60"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -2783,7 +2670,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="69"/>
       <c r="C5" s="15" t="s">
         <v>15</v>
@@ -2798,19 +2685,19 @@
         <v>16</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="65"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2821,19 +2708,19 @@
       <c r="I6" s="16"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
     </row>
-    <row r="8" spans="2:10" ht="16">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
       <c r="C8" s="104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="106">
         <v>41395</v>
@@ -2845,13 +2732,13 @@
         <v>42278</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="65"/>
       <c r="C9" s="104" t="s">
         <v>3</v>
@@ -2864,7 +2751,7 @@
       <c r="I9" s="60"/>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="65"/>
       <c r="C10" s="70" t="s">
         <v>6</v>
@@ -2877,7 +2764,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="65"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -2887,33 +2774,33 @@
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
       <c r="C12" s="70"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="65"/>
       <c r="C13" s="104" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
       <c r="C14" s="70"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="65"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="65"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="65"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="65"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="65"/>
     </row>
   </sheetData>
@@ -2922,11 +2809,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2937,23 +2819,22 @@
   </sheetPr>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="61" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="61" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="61" customWidth="1"/>
     <col min="3" max="3" width="17" style="61" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="61" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="61"/>
+    <col min="4" max="4" width="3.140625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="61" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1"/>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -2967,7 +2848,7 @@
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="93"/>
       <c r="C3" s="15" t="s">
@@ -2986,7 +2867,7 @@
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -3000,7 +2881,7 @@
       <c r="L4" s="60"/>
       <c r="M4" s="60"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="65"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -3014,10 +2895,10 @@
       <c r="L5" s="60"/>
       <c r="M5" s="60"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="65"/>
       <c r="C6" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="60"/>
       <c r="G6" s="60"/>
@@ -3028,7 +2909,7 @@
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
@@ -3042,7 +2923,7 @@
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -3056,7 +2937,7 @@
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="65"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
@@ -3070,7 +2951,7 @@
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="65"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
@@ -3084,17 +2965,17 @@
       <c r="L10" s="60"/>
       <c r="M10" s="60"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="65"/>
       <c r="C11" s="111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="60"/>
       <c r="E11" s="105">
         <v>601</v>
       </c>
       <c r="F11" s="105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -3104,7 +2985,7 @@
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
@@ -3113,7 +2994,7 @@
         <v>1.6638935108153079E-3</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -3123,7 +3004,7 @@
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="65"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
@@ -3137,12 +3018,12 @@
       <c r="L13" s="60"/>
       <c r="M13" s="60"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="125" t="s">
-        <v>68</v>
+      <c r="E14" s="116" t="s">
+        <v>67</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -3153,12 +3034,12 @@
       <c r="L14" s="60"/>
       <c r="M14" s="60"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="65"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="125" t="s">
-        <v>67</v>
+      <c r="E15" s="116" t="s">
+        <v>66</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -3169,7 +3050,7 @@
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="65"/>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
@@ -3183,7 +3064,7 @@
       <c r="L16" s="60"/>
       <c r="M16" s="60"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="65"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -3197,7 +3078,7 @@
       <c r="L17" s="60"/>
       <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="65"/>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
@@ -3211,7 +3092,7 @@
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="65"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
@@ -3225,10 +3106,10 @@
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="65"/>
       <c r="C20" s="111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
@@ -3241,7 +3122,7 @@
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="65"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
@@ -3255,7 +3136,7 @@
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="65"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
@@ -3269,7 +3150,7 @@
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="65"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
@@ -3281,7 +3162,7 @@
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="65"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
@@ -3295,7 +3176,7 @@
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="65"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
@@ -3309,7 +3190,7 @@
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="65"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
@@ -3323,7 +3204,7 @@
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="65"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
@@ -3337,10 +3218,10 @@
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="65"/>
       <c r="C28" s="111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="60">
@@ -3357,7 +3238,7 @@
       <c r="L28" s="60"/>
       <c r="M28" s="60"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="65"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
@@ -3371,7 +3252,7 @@
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="65"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
@@ -3385,7 +3266,7 @@
       <c r="L30" s="60"/>
       <c r="M30" s="60"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="65"/>
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
@@ -3399,7 +3280,7 @@
       <c r="L31" s="60"/>
       <c r="M31" s="60"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="65"/>
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
@@ -3413,7 +3294,7 @@
       <c r="L32" s="60"/>
       <c r="M32" s="60"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="65"/>
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
@@ -3427,10 +3308,10 @@
       <c r="L33" s="60"/>
       <c r="M33" s="60"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="65"/>
       <c r="C34" s="111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
@@ -3443,7 +3324,7 @@
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="65"/>
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
@@ -3457,7 +3338,7 @@
       <c r="L35" s="60"/>
       <c r="M35" s="60"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="65"/>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
@@ -3471,7 +3352,7 @@
       <c r="L36" s="60"/>
       <c r="M36" s="60"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="65"/>
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
@@ -3485,10 +3366,10 @@
       <c r="L37" s="60"/>
       <c r="M37" s="60"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="65"/>
       <c r="C38" s="111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
@@ -3501,10 +3382,10 @@
       <c r="L38" s="60"/>
       <c r="M38" s="60"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="65"/>
       <c r="C39" s="111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
@@ -3519,7 +3400,7 @@
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="65"/>
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
@@ -3533,7 +3414,7 @@
       <c r="L40" s="60"/>
       <c r="M40" s="60"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="65"/>
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
@@ -3547,7 +3428,7 @@
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="65"/>
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
@@ -3561,7 +3442,7 @@
       <c r="L42" s="60"/>
       <c r="M42" s="60"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="65"/>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
@@ -3575,7 +3456,7 @@
       <c r="L43" s="60"/>
       <c r="M43" s="60"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="65"/>
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
@@ -3589,7 +3470,7 @@
       <c r="L44" s="60"/>
       <c r="M44" s="60"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="65"/>
       <c r="C45" s="60"/>
       <c r="D45" s="60"/>
@@ -3603,7 +3484,7 @@
       <c r="L45" s="60"/>
       <c r="M45" s="60"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="65"/>
       <c r="C46" s="60"/>
       <c r="D46" s="60"/>
@@ -3617,7 +3498,7 @@
       <c r="L46" s="60"/>
       <c r="M46" s="60"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="65"/>
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
@@ -3631,7 +3512,7 @@
       <c r="L47" s="60"/>
       <c r="M47" s="60"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="65"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
@@ -3645,7 +3526,7 @@
       <c r="L48" s="60"/>
       <c r="M48" s="60"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="65"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
@@ -3659,7 +3540,7 @@
       <c r="L49" s="60"/>
       <c r="M49" s="60"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="65"/>
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
@@ -3673,7 +3554,7 @@
       <c r="L50" s="60"/>
       <c r="M50" s="60"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="65"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
@@ -3687,7 +3568,7 @@
       <c r="L51" s="60"/>
       <c r="M51" s="60"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="65"/>
       <c r="C52" s="60"/>
       <c r="D52" s="60"/>
@@ -3701,7 +3582,7 @@
       <c r="L52" s="60"/>
       <c r="M52" s="60"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="65"/>
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
@@ -3715,7 +3596,7 @@
       <c r="L53" s="60"/>
       <c r="M53" s="60"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="65"/>
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
@@ -3729,7 +3610,7 @@
       <c r="L54" s="60"/>
       <c r="M54" s="60"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="65"/>
       <c r="C55" s="60"/>
       <c r="D55" s="60"/>
@@ -3743,7 +3624,7 @@
       <c r="L55" s="60"/>
       <c r="M55" s="60"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="65"/>
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
@@ -3757,7 +3638,7 @@
       <c r="L56" s="60"/>
       <c r="M56" s="60"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="65"/>
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
@@ -3771,7 +3652,7 @@
       <c r="L57" s="60"/>
       <c r="M57" s="60"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="65"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
@@ -3785,7 +3666,7 @@
       <c r="L58" s="60"/>
       <c r="M58" s="60"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="65"/>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
@@ -3799,7 +3680,7 @@
       <c r="L59" s="60"/>
       <c r="M59" s="60"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="65"/>
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
@@ -3813,7 +3694,7 @@
       <c r="L60" s="60"/>
       <c r="M60" s="60"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="65"/>
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
@@ -3827,7 +3708,7 @@
       <c r="L61" s="60"/>
       <c r="M61" s="60"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="65"/>
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
@@ -3841,7 +3722,7 @@
       <c r="L62" s="60"/>
       <c r="M62" s="60"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="65"/>
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
@@ -3855,7 +3736,7 @@
       <c r="L63" s="60"/>
       <c r="M63" s="60"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="65"/>
       <c r="C64" s="60"/>
       <c r="D64" s="60"/>
@@ -3869,7 +3750,7 @@
       <c r="L64" s="60"/>
       <c r="M64" s="60"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="65"/>
       <c r="C65" s="60"/>
       <c r="D65" s="60"/>
@@ -3883,7 +3764,7 @@
       <c r="L65" s="60"/>
       <c r="M65" s="60"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="65"/>
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
@@ -3897,7 +3778,7 @@
       <c r="L66" s="60"/>
       <c r="M66" s="60"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="65"/>
       <c r="C67" s="60"/>
       <c r="D67" s="60"/>
@@ -3911,7 +3792,7 @@
       <c r="L67" s="60"/>
       <c r="M67" s="60"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="65"/>
       <c r="C68" s="60"/>
       <c r="D68" s="60"/>
@@ -3925,7 +3806,7 @@
       <c r="L68" s="60"/>
       <c r="M68" s="60"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="65"/>
       <c r="C69" s="60"/>
       <c r="D69" s="60"/>
@@ -3939,7 +3820,7 @@
       <c r="L69" s="60"/>
       <c r="M69" s="60"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="65"/>
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
@@ -3953,7 +3834,7 @@
       <c r="L70" s="60"/>
       <c r="M70" s="60"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="65"/>
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
@@ -3967,7 +3848,7 @@
       <c r="L71" s="60"/>
       <c r="M71" s="60"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="65"/>
       <c r="C72" s="60"/>
       <c r="D72" s="60"/>
@@ -3981,7 +3862,7 @@
       <c r="L72" s="60"/>
       <c r="M72" s="60"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="65"/>
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
@@ -3995,7 +3876,7 @@
       <c r="L73" s="60"/>
       <c r="M73" s="60"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="65"/>
       <c r="C74" s="60"/>
       <c r="D74" s="60"/>
@@ -4009,7 +3890,7 @@
       <c r="L74" s="60"/>
       <c r="M74" s="60"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="65"/>
       <c r="C75" s="98"/>
       <c r="D75" s="60"/>
@@ -4023,7 +3904,7 @@
       <c r="L75" s="60"/>
       <c r="M75" s="60"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="65"/>
       <c r="C76" s="98"/>
       <c r="D76" s="60"/>
@@ -4037,7 +3918,7 @@
       <c r="L76" s="60"/>
       <c r="M76" s="60"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="65"/>
       <c r="C77" s="60"/>
       <c r="D77" s="60"/>
@@ -4051,7 +3932,7 @@
       <c r="L77" s="60"/>
       <c r="M77" s="60"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="65"/>
       <c r="C78" s="60"/>
       <c r="D78" s="60"/>
@@ -4065,7 +3946,7 @@
       <c r="L78" s="60"/>
       <c r="M78" s="60"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="65"/>
       <c r="C79" s="60"/>
       <c r="D79" s="60"/>
@@ -4079,7 +3960,7 @@
       <c r="L79" s="60"/>
       <c r="M79" s="60"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="65"/>
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
@@ -4093,7 +3974,7 @@
       <c r="L80" s="60"/>
       <c r="M80" s="60"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="65"/>
       <c r="C81" s="60"/>
       <c r="D81" s="60"/>
@@ -4107,7 +3988,7 @@
       <c r="L81" s="60"/>
       <c r="M81" s="60"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="65"/>
       <c r="C82" s="60"/>
       <c r="D82" s="60"/>
@@ -4121,7 +4002,7 @@
       <c r="L82" s="60"/>
       <c r="M82" s="60"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="65"/>
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
@@ -4135,7 +4016,7 @@
       <c r="L83" s="60"/>
       <c r="M83" s="60"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="65"/>
       <c r="C84" s="60"/>
       <c r="D84" s="60"/>
@@ -4149,7 +4030,7 @@
       <c r="L84" s="60"/>
       <c r="M84" s="60"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="65"/>
       <c r="C85" s="60"/>
       <c r="D85" s="60"/>
@@ -4163,7 +4044,7 @@
       <c r="L85" s="60"/>
       <c r="M85" s="60"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="65"/>
       <c r="C86" s="60"/>
       <c r="D86" s="60"/>
@@ -4177,7 +4058,7 @@
       <c r="L86" s="60"/>
       <c r="M86" s="60"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="65"/>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
@@ -4191,7 +4072,7 @@
       <c r="L87" s="60"/>
       <c r="M87" s="60"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="65"/>
       <c r="C88" s="98"/>
       <c r="D88" s="60"/>
@@ -4205,7 +4086,7 @@
       <c r="L88" s="60"/>
       <c r="M88" s="60"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="65"/>
       <c r="C89" s="98"/>
       <c r="D89" s="60"/>
@@ -4219,7 +4100,7 @@
       <c r="L89" s="60"/>
       <c r="M89" s="60"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="65"/>
       <c r="C90" s="60"/>
       <c r="D90" s="60"/>
@@ -4233,7 +4114,7 @@
       <c r="L90" s="60"/>
       <c r="M90" s="60"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="65"/>
       <c r="C91" s="60"/>
       <c r="D91" s="60"/>
@@ -4247,7 +4128,7 @@
       <c r="L91" s="60"/>
       <c r="M91" s="60"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="65"/>
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
@@ -4261,7 +4142,7 @@
       <c r="L92" s="60"/>
       <c r="M92" s="60"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="65"/>
       <c r="C93" s="60"/>
       <c r="D93" s="60"/>
@@ -4275,7 +4156,7 @@
       <c r="L93" s="60"/>
       <c r="M93" s="60"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="65"/>
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
@@ -4289,7 +4170,7 @@
       <c r="L94" s="60"/>
       <c r="M94" s="60"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="65"/>
       <c r="C95" s="60"/>
       <c r="D95" s="60"/>
@@ -4303,7 +4184,7 @@
       <c r="L95" s="60"/>
       <c r="M95" s="60"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="65"/>
       <c r="C96" s="60"/>
       <c r="D96" s="60"/>
@@ -4317,19 +4198,14 @@
       <c r="L96" s="60"/>
       <c r="M96" s="60"/>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="100"/>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F101" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_ship_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_ship_using_diesel_mix.converter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16240" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26520" windowHeight="16240" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -1217,6 +1217,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1244,15 +1253,6 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="248">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2310,7 +2310,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2335,36 +2335,36 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="E11" s="113">
         <f>'Research data'!F7</f>
-        <v>0.97790091728616191</v>
+        <v>1.0115635994646872</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="99" t="s">
@@ -2618,7 +2618,7 @@
       <c r="E7" s="86"/>
       <c r="F7" s="107">
         <f>Notes!E51</f>
-        <v>0.97790091728616191</v>
+        <v>1.0115635994646872</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -2712,7 +2712,7 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2884,37 +2884,37 @@
       <c r="B14" s="63"/>
       <c r="C14" s="68"/>
     </row>
-    <row r="15" spans="2:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="124" t="s">
+    <row r="15" spans="2:10" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="115">
         <v>2011</v>
       </c>
-      <c r="H15" s="125" t="s">
+      <c r="H15" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="125" t="s">
+      <c r="I15" s="116" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="124" t="s">
+    <row r="16" spans="2:10" s="115" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="115">
         <v>2011</v>
       </c>
-      <c r="H16" s="125" t="s">
+      <c r="H16" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="125" t="s">
+      <c r="I16" s="116" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2949,8 +2949,8 @@
   </sheetPr>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="103">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F11" s="103" t="s">
         <v>57</v>
@@ -3121,7 +3121,7 @@
       <c r="D12" s="58"/>
       <c r="E12" s="58">
         <f>1/E11</f>
-        <v>1.6638935108153079E-3</v>
+        <v>1.7211703958691911E-3</v>
       </c>
       <c r="F12" s="103" t="s">
         <v>50</v>
@@ -3560,20 +3560,20 @@
     </row>
     <row r="42" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="128" t="s">
+      <c r="D42" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="129">
+      <c r="E42" s="120">
         <v>20714</v>
       </c>
-      <c r="F42" s="128" t="s">
+      <c r="F42" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
       <c r="I42" s="58"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
@@ -3582,17 +3582,17 @@
     </row>
     <row r="43" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="63"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="132">
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="123">
         <f>E42*1000</f>
         <v>20714000</v>
       </c>
-      <c r="F43" s="128" t="s">
+      <c r="F43" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
       <c r="I43" s="58"/>
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
@@ -3601,18 +3601,18 @@
     </row>
     <row r="44" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="63"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128" t="s">
+      <c r="C44" s="119"/>
+      <c r="D44" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="130">
+      <c r="E44" s="121">
         <v>12174</v>
       </c>
-      <c r="F44" s="128" t="s">
+      <c r="F44" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
       <c r="I44" s="58"/>
       <c r="J44" s="58"/>
       <c r="K44" s="58"/>
@@ -3621,17 +3621,17 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="63"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="132">
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="123">
         <f>E44*1000000</f>
         <v>12174000000</v>
       </c>
-      <c r="F45" s="128" t="s">
+      <c r="F45" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
       <c r="I45" s="58"/>
       <c r="J45" s="58"/>
       <c r="K45" s="58"/>
@@ -3640,12 +3640,12 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="63"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
       <c r="I46" s="58"/>
       <c r="J46" s="58"/>
       <c r="K46" s="58"/>
@@ -3654,12 +3654,12 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="63"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
       <c r="I47" s="58"/>
       <c r="J47" s="58"/>
       <c r="K47" s="58"/>
@@ -3668,12 +3668,12 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="63"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="119"/>
       <c r="I48" s="58"/>
       <c r="J48" s="58"/>
       <c r="K48" s="58"/>
@@ -3682,17 +3682,17 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="63"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128">
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119">
         <f>E45/E43</f>
         <v>587.71845128898326</v>
       </c>
-      <c r="F49" s="128" t="s">
+      <c r="F49" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
       <c r="I49" s="58"/>
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
@@ -3701,12 +3701,12 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="63"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="128"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
       <c r="I50" s="58"/>
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
@@ -3715,20 +3715,20 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="63"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128" t="str">
+      <c r="C51" s="119"/>
+      <c r="D51" s="119" t="str">
         <f>Dashboard!D11</f>
         <v>tkm/MJ</v>
       </c>
-      <c r="E51" s="128">
+      <c r="E51" s="119">
         <f>E49*E12</f>
-        <v>0.97790091728616191</v>
-      </c>
-      <c r="F51" s="128" t="s">
+        <v>1.0115635994646872</v>
+      </c>
+      <c r="F51" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="128"/>
-      <c r="H51" s="124" t="s">
+      <c r="G51" s="119"/>
+      <c r="H51" s="115" t="s">
         <v>77</v>
       </c>
       <c r="I51" s="58"/>
@@ -3770,7 +3770,7 @@
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
       <c r="E54" s="58"/>
-      <c r="F54" s="126"/>
+      <c r="F54" s="117"/>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
       <c r="I54" s="58"/>
@@ -3784,7 +3784,7 @@
       <c r="C55" s="58"/>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
-      <c r="F55" s="126"/>
+      <c r="F55" s="117"/>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
       <c r="I55" s="58"/>
@@ -3798,7 +3798,7 @@
       <c r="C56" s="58"/>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
-      <c r="F56" s="126"/>
+      <c r="F56" s="117"/>
       <c r="G56" s="58"/>
       <c r="H56" s="58"/>
       <c r="I56" s="58"/>
@@ -3812,7 +3812,7 @@
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
       <c r="E57" s="58"/>
-      <c r="F57" s="126"/>
+      <c r="F57" s="117"/>
       <c r="G57" s="58"/>
       <c r="H57" s="58"/>
       <c r="I57" s="58"/>
